--- a/old_models/accuracies/regular_model_accuracies.xlsx
+++ b/old_models/accuracies/regular_model_accuracies.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9609120521172638</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8664495114006515</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9609120521172638</v>
+        <v>0.9675324675324676</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8859934853420195</v>
+        <v>0.8733766233766234</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9739413680781759</v>
+        <v>0.9707792207792207</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8599348534201955</v>
+        <v>0.8603896103896104</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9674267100977199</v>
+        <v>0.974025974025974</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8827361563517915</v>
+        <v>0.8766233766233766</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9641693811074918</v>
+        <v>0.9675324675324676</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8566775244299675</v>
+        <v>0.8766233766233766</v>
       </c>
     </row>
   </sheetData>

--- a/old_models/accuracies/regular_model_accuracies.xlsx
+++ b/old_models/accuracies/regular_model_accuracies.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9642857142857143</v>
+        <v>0.9644012944983819</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8608414239482201</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9675324675324676</v>
+        <v>0.9579288025889967</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8733766233766234</v>
+        <v>0.8705501618122977</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9707792207792207</v>
+        <v>0.970873786407767</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8603896103896104</v>
+        <v>0.8608414239482201</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.974025974025974</v>
+        <v>0.9644012944983819</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8766233766233766</v>
+        <v>0.8673139158576052</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9675324675324676</v>
+        <v>0.9644012944983819</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8766233766233766</v>
+        <v>0.8543689320388349</v>
       </c>
     </row>
   </sheetData>

--- a/old_models/accuracies/regular_model_accuracies.xlsx
+++ b/old_models/accuracies/regular_model_accuracies.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9644012944983819</v>
+        <v>0.964516129032258</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8608414239482201</v>
+        <v>0.8612903225806452</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9579288025889967</v>
+        <v>0.9612903225806452</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8705501618122977</v>
+        <v>0.8774193548387097</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.970873786407767</v>
+        <v>0.9709677419354839</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8608414239482201</v>
+        <v>0.8580645161290322</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9644012944983819</v>
+        <v>0.964516129032258</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8673139158576052</v>
+        <v>0.8806451612903226</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9644012944983819</v>
+        <v>0.964516129032258</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8543689320388349</v>
+        <v>0.8645161290322581</v>
       </c>
     </row>
   </sheetData>

--- a/old_models/accuracies/regular_model_accuracies.xlsx
+++ b/old_models/accuracies/regular_model_accuracies.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.964516129032258</v>
+        <v>0.9647435897435898</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8612903225806452</v>
+        <v>0.8589743589743589</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9612903225806452</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8774193548387097</v>
+        <v>0.8782051282051282</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9709677419354839</v>
+        <v>0.9775641025641025</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8580645161290322</v>
+        <v>0.8653846153846154</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.964516129032258</v>
+        <v>0.9647435897435898</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8806451612903226</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.964516129032258</v>
+        <v>0.9775641025641025</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8645161290322581</v>
+        <v>0.875</v>
       </c>
     </row>
   </sheetData>

--- a/old_models/accuracies/regular_model_accuracies.xlsx
+++ b/old_models/accuracies/regular_model_accuracies.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
